--- a/target/test-classes/Samples.xlsx
+++ b/target/test-classes/Samples.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{19EC38F6-44D5-44BD-AF43-0364368A3403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16125" windowHeight="4860"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,26 +394,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H2:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="41.140625" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="41.109375" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -438,7 +439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -464,7 +465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -490,7 +491,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -516,6 +517,10 @@
         <v>40</v>
       </c>
     </row>
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
